--- a/iselUssSyncV2/OutputWSLorientation/20220524_1330_D50L474W30Q14.6U0.32H57.8G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1330_D50L474W30Q14.6U0.32H57.8G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.52049699574380981</v>
+        <v>0.29759332065536787</v>
       </c>
       <c r="P2" s="0">
         <v>180.84174666666655</v>
@@ -356,10 +356,10 @@
         <v>1.7740575347999992</v>
       </c>
       <c r="R2" s="0">
-        <v>1.4561424950959558</v>
+        <v>2.5468239421611809</v>
       </c>
       <c r="S2" s="0">
-        <v>0.33480084178670383</v>
+        <v>1.2565396271382796</v>
       </c>
       <c r="T2" s="0">
         <v>0.032653332240840063</v>
@@ -383,16 +383,16 @@
         <v>150000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.2183268744471976</v>
+        <v>0.69657643209313158</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.2988443079549441</v>
+        <v>1.4118595995578325</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.6756867026232194</v>
+        <v>1.3378433513116097</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.6954111639981875</v>
+        <v>1.3477055819990937</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>7.974531010578163</v>
+        <v>2.7497029508694419</v>
       </c>
     </row>
   </sheetData>
